--- a/inst/extdata/rna/rna_chip_mapping.xlsx
+++ b/inst/extdata/rna/rna_chip_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>chip_label</t>
   </si>
@@ -264,6 +264,234 @@
   </si>
   <si>
     <t>MEG01_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>ARH77_BR1_RNA</t>
+  </si>
+  <si>
+    <t>ARH77_BR2_RNA</t>
+  </si>
+  <si>
+    <t>Daudi_BR1_RNA</t>
+  </si>
+  <si>
+    <t>Daudi_BR2_RNA</t>
+  </si>
+  <si>
+    <t>Namalwa_BR1_RNA</t>
+  </si>
+  <si>
+    <t>Namalwa_BR2_RNA</t>
+  </si>
+  <si>
+    <t>Raji_BR1_RNA</t>
+  </si>
+  <si>
+    <t>Raji_BR2__RNA</t>
+  </si>
+  <si>
+    <t>Ramos_BR1_RNA</t>
+  </si>
+  <si>
+    <t>Ramos_BR2_RNA</t>
+  </si>
+  <si>
+    <t>Toledo_BR1_RNA</t>
+  </si>
+  <si>
+    <t>Toledo_BR2_RNA</t>
+  </si>
+  <si>
+    <t>HUT78_BR1_Bead_RNA</t>
+  </si>
+  <si>
+    <t>HUT78_BR2_Bead_RNA</t>
+  </si>
+  <si>
+    <t>Jurkat_BR1_Bead_RNA</t>
+  </si>
+  <si>
+    <t>Jurkat_BR2_Bead_RNA</t>
+  </si>
+  <si>
+    <t>HUT78_BR1_Ctr_RNA</t>
+  </si>
+  <si>
+    <t>HUT78_BR2_Ctr_RNA</t>
+  </si>
+  <si>
+    <t>Jurkat_BR1_Ctr_RNA</t>
+  </si>
+  <si>
+    <t>Jurkat_BR2_Ctr_RNA</t>
+  </si>
+  <si>
+    <t>HEP3B_2D_BR1_RNA</t>
+  </si>
+  <si>
+    <t>HEP3B_2D_BR2_RNA</t>
+  </si>
+  <si>
+    <t>HEP3B_3D_BR1_RNA</t>
+  </si>
+  <si>
+    <t>HEP3B_3D_BR2_RNA</t>
+  </si>
+  <si>
+    <t>HEPG2_2D_BR1_RNA</t>
+  </si>
+  <si>
+    <t>HEPG2_2D_BR2_RNA</t>
+  </si>
+  <si>
+    <t>HEPG2_3D_BR1_RNA</t>
+  </si>
+  <si>
+    <t>HEPG2_3D_BR2_RNA</t>
+  </si>
+  <si>
+    <t>HUH7_2D_BR1_RNA</t>
+  </si>
+  <si>
+    <t>HUH7_2D_BR2_RNA</t>
+  </si>
+  <si>
+    <t>HUH7_3D_BR1_RNA</t>
+  </si>
+  <si>
+    <t>HUH7_3D_BR2_RNA</t>
+  </si>
+  <si>
+    <t>PHH_D1_2D_RNA</t>
+  </si>
+  <si>
+    <t>PHH_D2_2D_RNA</t>
+  </si>
+  <si>
+    <t>PHH_D3_2D_RNA</t>
+  </si>
+  <si>
+    <t>PHH_D1_3D_RNA</t>
+  </si>
+  <si>
+    <t>PHH_D2_3D_RNA</t>
+  </si>
+  <si>
+    <t>PHH_D3_3D_RNA</t>
+  </si>
+  <si>
+    <t>PHH_BR1_2D</t>
+  </si>
+  <si>
+    <t>PHH_BR2_2D</t>
+  </si>
+  <si>
+    <t>PHH_BR3_2D</t>
+  </si>
+  <si>
+    <t>PHH_BR1_3D</t>
+  </si>
+  <si>
+    <t>PHH_BR2_3D</t>
+  </si>
+  <si>
+    <t>PHH_BR3_3D</t>
+  </si>
+  <si>
+    <t>ARH77_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>ARH77_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>Daudi_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>Daudi_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>Namalwa_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>Namalwa_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>Raji_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>Ramos_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>Ramos_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>Toledo_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>Toledo_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>HUT78_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>HUT78_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>Jurkat_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>Jurkat_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>HUT78-B_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>HUT78-B_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>Jurkat-B_BR1_Baseline</t>
+  </si>
+  <si>
+    <t>Jurkat-B_BR2_Baseline</t>
+  </si>
+  <si>
+    <t>HEP3B_BR1_2D</t>
+  </si>
+  <si>
+    <t>HEP3B_BR2_2D</t>
+  </si>
+  <si>
+    <t>HEP3B_BR1_3D</t>
+  </si>
+  <si>
+    <t>HEP3B_BR2_3D</t>
+  </si>
+  <si>
+    <t>HEPG2_BR1_2D</t>
+  </si>
+  <si>
+    <t>HEPG2_BR2_2D</t>
+  </si>
+  <si>
+    <t>HEPG2_BR1_3D</t>
+  </si>
+  <si>
+    <t>HEPG2_BR2_3D</t>
+  </si>
+  <si>
+    <t>HUH7_BR1_2D</t>
+  </si>
+  <si>
+    <t>HUH7_BR2_2D</t>
+  </si>
+  <si>
+    <t>HUH7_BR1_3D</t>
+  </si>
+  <si>
+    <t>HUH7_BR2_3D</t>
+  </si>
+  <si>
+    <t>Raji_BR2_Baseline</t>
   </si>
 </sst>
 </file>
@@ -615,16 +843,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,6 +1176,310 @@
         <v>73</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
